--- a/resources/experiment 1/predictions/single/LinearRegression/incidence/Macroalbuminuria (INC).xlsx
+++ b/resources/experiment 1/predictions/single/LinearRegression/incidence/Macroalbuminuria (INC).xlsx
@@ -466,7 +466,7 @@
         <v>3.611055737440452</v>
       </c>
       <c r="B3" t="n">
-        <v>-3.132610965026835</v>
+        <v>-3.132610965026821</v>
       </c>
       <c r="C3" t="n">
         <v>12.56324273934791</v>
@@ -477,7 +477,7 @@
         <v>15.58115209878986</v>
       </c>
       <c r="B4" t="n">
-        <v>8.266579145070892</v>
+        <v>8.266579145070899</v>
       </c>
       <c r="C4" t="n">
         <v>24.38741633400444</v>
@@ -488,7 +488,7 @@
         <v>5.064358441253802</v>
       </c>
       <c r="B5" t="n">
-        <v>-1.825079645799569</v>
+        <v>-1.825079645799555</v>
       </c>
       <c r="C5" t="n">
         <v>13.90120162022911</v>
@@ -499,7 +499,7 @@
         <v>29.77736136757606</v>
       </c>
       <c r="B6" t="n">
-        <v>21.61137537879219</v>
+        <v>21.61137537879221</v>
       </c>
       <c r="C6" t="n">
         <v>38.2903790412255</v>
@@ -521,7 +521,7 @@
         <v>99.66416602244183</v>
       </c>
       <c r="B8" t="n">
-        <v>87.96153449937866</v>
+        <v>87.96153449937863</v>
       </c>
       <c r="C8" t="n">
         <v>107.6116865078041</v>
@@ -529,10 +529,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>29.08148258348055</v>
+        <v>29.08148258348054</v>
       </c>
       <c r="B9" t="n">
-        <v>20.94714914903369</v>
+        <v>20.9471491490337</v>
       </c>
       <c r="C9" t="n">
         <v>37.66930012828006</v>
@@ -543,7 +543,7 @@
         <v>100.4369762260652</v>
       </c>
       <c r="B10" t="n">
-        <v>88.59960930377497</v>
+        <v>88.59960930377494</v>
       </c>
       <c r="C10" t="n">
         <v>108.3525167394875</v>
@@ -576,7 +576,7 @@
         <v>90.6160613526247</v>
       </c>
       <c r="B13" t="n">
-        <v>79.17217674266301</v>
+        <v>79.172176742663</v>
       </c>
       <c r="C13" t="n">
         <v>98.48738093865759</v>
@@ -587,7 +587,7 @@
         <v>77.85776850374629</v>
       </c>
       <c r="B14" t="n">
-        <v>67.14014211324141</v>
+        <v>67.1401421132414</v>
       </c>
       <c r="C14" t="n">
         <v>85.89842684857015</v>
@@ -598,7 +598,7 @@
         <v>6.517661145067159</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.5175483265723102</v>
+        <v>-0.5175483265722889</v>
       </c>
       <c r="C15" t="n">
         <v>15.23916050111031</v>
@@ -609,15 +609,15 @@
         <v>29.80813393538722</v>
       </c>
       <c r="B16" t="n">
-        <v>21.60091480864732</v>
+        <v>21.60091480864733</v>
       </c>
       <c r="C16" t="n">
-        <v>38.33827956872066</v>
+        <v>38.33827956872067</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>43.2161467166444</v>
+        <v>43.21614671664441</v>
       </c>
       <c r="B17" t="n">
         <v>34.31286652304475</v>
@@ -631,7 +631,7 @@
         <v>15.5503795309787</v>
       </c>
       <c r="B18" t="n">
-        <v>8.277039715215771</v>
+        <v>8.277039715215778</v>
       </c>
       <c r="C18" t="n">
         <v>24.33951580650928</v>
@@ -639,7 +639,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>67.31020227839906</v>
+        <v>67.31020227839905</v>
       </c>
       <c r="B19" t="n">
         <v>57.05894389251582</v>
@@ -653,7 +653,7 @@
         <v>31.23066407138941</v>
       </c>
       <c r="B20" t="n">
-        <v>22.91890669801946</v>
+        <v>22.91890669801947</v>
       </c>
       <c r="C20" t="n">
         <v>39.6283379221067</v>
@@ -664,7 +664,7 @@
         <v>18.51853007422773</v>
       </c>
       <c r="B21" t="n">
-        <v>10.87118121338054</v>
+        <v>10.87118121338056</v>
       </c>
       <c r="C21" t="n">
         <v>27.11123462326199</v>
@@ -675,7 +675,7 @@
         <v>101.1790138618775</v>
       </c>
       <c r="B22" t="n">
-        <v>89.24814467831617</v>
+        <v>89.24814467831615</v>
       </c>
       <c r="C22" t="n">
         <v>109.0454464436757</v>
@@ -686,7 +686,7 @@
         <v>7.182767361351509</v>
       </c>
       <c r="B23" t="n">
-        <v>0.1571384733310737</v>
+        <v>0.157138473331095</v>
       </c>
       <c r="C23" t="n">
         <v>15.81233888656058</v>
@@ -697,7 +697,7 @@
         <v>29.8235202192928</v>
       </c>
       <c r="B24" t="n">
-        <v>21.59568452357488</v>
+        <v>21.5956845235749</v>
       </c>
       <c r="C24" t="n">
         <v>38.36222983246824</v>
@@ -705,10 +705,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>28.33944494766829</v>
+        <v>28.33944494766828</v>
       </c>
       <c r="B25" t="n">
-        <v>20.29861377449249</v>
+        <v>20.29861377449251</v>
       </c>
       <c r="C25" t="n">
         <v>36.97637042409188</v>
@@ -719,7 +719,7 @@
         <v>18.45698493860541</v>
       </c>
       <c r="B26" t="n">
-        <v>10.89210235367029</v>
+        <v>10.89210235367031</v>
       </c>
       <c r="C26" t="n">
         <v>27.01543356827167</v>
@@ -730,7 +730,7 @@
         <v>92.03859148862688</v>
       </c>
       <c r="B27" t="n">
-        <v>80.49016863203515</v>
+        <v>80.49016863203514</v>
       </c>
       <c r="C27" t="n">
         <v>99.77743929204362</v>
@@ -738,7 +738,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>53.12937929351845</v>
+        <v>53.12937929351844</v>
       </c>
       <c r="B28" t="n">
         <v>43.70891737372207</v>
@@ -752,7 +752,7 @@
         <v>7.909418713258184</v>
       </c>
       <c r="B29" t="n">
-        <v>0.8109041329447066</v>
+        <v>0.810904132944728</v>
       </c>
       <c r="C29" t="n">
         <v>16.48131832700118</v>
@@ -785,7 +785,7 @@
         <v>88.45149358081025</v>
       </c>
       <c r="B32" t="n">
-        <v>77.20564947874968</v>
+        <v>77.20564947874966</v>
       </c>
       <c r="C32" t="n">
         <v>96.50439288108338</v>
@@ -796,7 +796,7 @@
         <v>77.87315478765186</v>
       </c>
       <c r="B33" t="n">
-        <v>67.13491182816897</v>
+        <v>67.13491182816895</v>
       </c>
       <c r="C33" t="n">
         <v>85.92237711231772</v>
@@ -807,7 +807,7 @@
         <v>55.98982584942841</v>
       </c>
       <c r="B34" t="n">
-        <v>46.33967086739391</v>
+        <v>46.33967086739392</v>
       </c>
       <c r="C34" t="n">
         <v>64.08936613434582</v>
@@ -818,7 +818,7 @@
         <v>30.5347852872939</v>
       </c>
       <c r="B35" t="n">
-        <v>22.25468046826095</v>
+        <v>22.25468046826096</v>
       </c>
       <c r="C35" t="n">
         <v>39.00725900916126</v>
@@ -840,7 +840,7 @@
         <v>19.21440885832325</v>
       </c>
       <c r="B37" t="n">
-        <v>11.53540744313905</v>
+        <v>11.53540744313906</v>
       </c>
       <c r="C37" t="n">
         <v>27.73231353620743</v>
@@ -862,7 +862,7 @@
         <v>43.98895692026782</v>
       </c>
       <c r="B39" t="n">
-        <v>34.95094132744106</v>
+        <v>34.95094132744107</v>
       </c>
       <c r="C39" t="n">
         <v>52.21729201219414</v>
@@ -870,10 +870,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>17.03445480260321</v>
+        <v>17.03445480260322</v>
       </c>
       <c r="B40" t="n">
-        <v>9.574110464298151</v>
+        <v>9.574110464298165</v>
       </c>
       <c r="C40" t="n">
         <v>25.72537521488564</v>
@@ -895,7 +895,7 @@
         <v>66.56816464258679</v>
       </c>
       <c r="B42" t="n">
-        <v>56.41040851797463</v>
+        <v>56.41040851797462</v>
       </c>
       <c r="C42" t="n">
         <v>74.67138190311148</v>
@@ -906,7 +906,7 @@
         <v>42.48949536473773</v>
       </c>
       <c r="B43" t="n">
-        <v>33.65910086343111</v>
+        <v>33.65910086343112</v>
       </c>
       <c r="C43" t="n">
         <v>50.8074823400702</v>
@@ -917,7 +917,7 @@
         <v>63.67694551886567</v>
       </c>
       <c r="B44" t="n">
-        <v>53.79011559444767</v>
+        <v>53.79011559444766</v>
       </c>
       <c r="C44" t="n">
         <v>72.01941440509667</v>
@@ -939,7 +939,7 @@
         <v>76.35830694821618</v>
       </c>
       <c r="B46" t="n">
-        <v>65.84830164923146</v>
+        <v>65.84830164923144</v>
       </c>
       <c r="C46" t="n">
         <v>84.48861717644621</v>
@@ -950,7 +950,7 @@
         <v>101.8595063620674</v>
       </c>
       <c r="B47" t="n">
-        <v>89.91760119314711</v>
+        <v>89.91760119314709</v>
       </c>
       <c r="C47" t="n">
         <v>109.6425750928735</v>
@@ -961,7 +961,7 @@
         <v>43.24691928445557</v>
       </c>
       <c r="B48" t="n">
-        <v>34.30240595289987</v>
+        <v>34.30240595289988</v>
       </c>
       <c r="C48" t="n">
         <v>51.52436230800596</v>
@@ -972,18 +972,18 @@
         <v>16.35396230241329</v>
       </c>
       <c r="B49" t="n">
-        <v>8.90465394946721</v>
+        <v>8.904653949467225</v>
       </c>
       <c r="C49" t="n">
-        <v>25.12824656568778</v>
+        <v>25.12824656568777</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>19.24518142613442</v>
+        <v>19.24518142613441</v>
       </c>
       <c r="B50" t="n">
-        <v>11.52494687299417</v>
+        <v>11.52494687299419</v>
       </c>
       <c r="C50" t="n">
         <v>27.78021406370259</v>
@@ -994,7 +994,7 @@
         <v>3.58028316962929</v>
       </c>
       <c r="B51" t="n">
-        <v>-3.122150394881956</v>
+        <v>-3.122150394881942</v>
       </c>
       <c r="C51" t="n">
         <v>12.51534221185275</v>
@@ -1005,7 +1005,7 @@
         <v>75.69320073193182</v>
       </c>
       <c r="B52" t="n">
-        <v>65.17361484932808</v>
+        <v>65.17361484932806</v>
       </c>
       <c r="C52" t="n">
         <v>83.91543879099594</v>
@@ -1016,7 +1016,7 @@
         <v>43.94279806855108</v>
       </c>
       <c r="B53" t="n">
-        <v>34.96663218265837</v>
+        <v>34.96663218265839</v>
       </c>
       <c r="C53" t="n">
         <v>52.1454412209514</v>
@@ -1027,7 +1027,7 @@
         <v>6.486888577255996</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.5070877564274312</v>
+        <v>-0.5070877564274099</v>
       </c>
       <c r="C54" t="n">
         <v>15.19125997361515</v>
@@ -1038,7 +1038,7 @@
         <v>18.50314379032216</v>
       </c>
       <c r="B55" t="n">
-        <v>10.87641149845298</v>
+        <v>10.876411498453</v>
       </c>
       <c r="C55" t="n">
         <v>27.08728435951441</v>
@@ -1049,7 +1049,7 @@
         <v>77.16188971965076</v>
       </c>
       <c r="B56" t="n">
-        <v>66.4759158834829</v>
+        <v>66.47591588348288</v>
       </c>
       <c r="C56" t="n">
         <v>85.2773479356247</v>
@@ -1057,10 +1057,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>88.43610729690468</v>
+        <v>88.43610729690467</v>
       </c>
       <c r="B57" t="n">
-        <v>77.21087976382212</v>
+        <v>77.21087976382211</v>
       </c>
       <c r="C57" t="n">
         <v>96.4804426173358</v>
@@ -1071,7 +1071,7 @@
         <v>19.19902257441767</v>
       </c>
       <c r="B58" t="n">
-        <v>11.54063772821149</v>
+        <v>11.5406377282115</v>
       </c>
       <c r="C58" t="n">
         <v>27.70836327245985</v>
@@ -1090,10 +1090,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>7.228926213068256</v>
+        <v>7.228926213068249</v>
       </c>
       <c r="B60" t="n">
-        <v>0.1414476181137587</v>
+        <v>0.14144761811378</v>
       </c>
       <c r="C60" t="n">
         <v>15.88418967780333</v>
@@ -1115,7 +1115,7 @@
         <v>65.8568995745857</v>
       </c>
       <c r="B62" t="n">
-        <v>55.75141257328856</v>
+        <v>55.75141257328855</v>
       </c>
       <c r="C62" t="n">
         <v>74.02635272641845</v>
@@ -1137,10 +1137,10 @@
         <v>7.213539929162671</v>
       </c>
       <c r="B64" t="n">
-        <v>0.1466779031861947</v>
+        <v>0.1466779031862231</v>
       </c>
       <c r="C64" t="n">
-        <v>15.86023941405575</v>
+        <v>15.86023941405574</v>
       </c>
     </row>
     <row r="65">
@@ -1148,7 +1148,7 @@
         <v>87.69406966109241</v>
       </c>
       <c r="B65" t="n">
-        <v>76.56234438928092</v>
+        <v>76.56234438928091</v>
       </c>
       <c r="C65" t="n">
         <v>95.78751291314762</v>
@@ -1181,10 +1181,10 @@
         <v>17.80726500622664</v>
       </c>
       <c r="B68" t="n">
-        <v>10.21218526869447</v>
+        <v>10.21218526869449</v>
       </c>
       <c r="C68" t="n">
-        <v>26.46620544656898</v>
+        <v>26.46620544656897</v>
       </c>
     </row>
     <row r="69">
@@ -1192,7 +1192,7 @@
         <v>101.9056652137842</v>
       </c>
       <c r="B69" t="n">
-        <v>89.90191033792979</v>
+        <v>89.90191033792978</v>
       </c>
       <c r="C69" t="n">
         <v>109.7144258841163</v>
@@ -1203,10 +1203,10 @@
         <v>17.01906851869764</v>
       </c>
       <c r="B70" t="n">
-        <v>9.579340749370594</v>
+        <v>9.579340749370608</v>
       </c>
       <c r="C70" t="n">
-        <v>25.70142495113806</v>
+        <v>25.70142495113805</v>
       </c>
     </row>
     <row r="71">
@@ -1225,10 +1225,10 @@
         <v>41.0977377965467</v>
       </c>
       <c r="B72" t="n">
-        <v>32.3306484039141</v>
+        <v>32.33064840391411</v>
       </c>
       <c r="C72" t="n">
-        <v>49.56532451417932</v>
+        <v>49.56532451417933</v>
       </c>
     </row>
   </sheetData>
